--- a/Report Creator/test_subjects/Marks Sheet Term II 2024/A level Marks Sheet Term II 2024/Marksheet A level - GENERAL PAPER.xlsx
+++ b/Report Creator/test_subjects/Marks Sheet Term II 2024/A level Marks Sheet Term II 2024/Marksheet A level - GENERAL PAPER.xlsx
@@ -8,11 +8,16 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="SNfuHvvX8XnMjQQd8QVhmyOZkHAN8hjmtThQXOGNUT0="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Student ID</t>
   </si>
@@ -75,6 +80,12 @@
   </si>
   <si>
     <t>RUBANGAKENE ARON</t>
+  </si>
+  <si>
+    <t>OCHORA IVAN</t>
+  </si>
+  <si>
+    <t>PILOYA MERCY</t>
   </si>
   <si>
     <t>ACII AGNESS</t>
@@ -135,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -146,6 +157,11 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,11 +178,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,7 +445,9 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="2">
+        <v>27.0</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -435,7 +459,9 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="2">
+        <v>33.0</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -447,7 +473,9 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="2">
+        <v>45.0</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -459,7 +487,9 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="2">
+        <v>53.0</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -483,7 +513,9 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="2">
+        <v>43.0</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -507,7 +539,9 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="2">
+        <v>34.0</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -555,7 +589,9 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="2">
+        <v>30.0</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -579,7 +615,9 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="2">
+        <v>52.0</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -591,7 +629,9 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="2">
+        <v>29.0</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -603,10 +643,28 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="2">
+        <v>29.0</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="3">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="3">
+        <v>33.0</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -1629,16 +1687,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1648,7 +1706,7 @@
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1658,7 +1716,7 @@
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1668,7 +1726,7 @@
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1678,7 +1736,7 @@
     </row>
     <row r="6">
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1688,7 +1746,7 @@
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1698,7 +1756,7 @@
     </row>
     <row r="8">
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1708,7 +1766,7 @@
     </row>
     <row r="9">
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1718,7 +1776,7 @@
     </row>
     <row r="10">
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1728,7 +1786,7 @@
     </row>
     <row r="11">
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1738,7 +1796,7 @@
     </row>
     <row r="12">
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1748,7 +1806,7 @@
     </row>
     <row r="13">
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1758,7 +1816,7 @@
     </row>
     <row r="14">
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1768,7 +1826,7 @@
     </row>
     <row r="15">
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1778,7 +1836,7 @@
     </row>
     <row r="16">
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1788,7 +1846,7 @@
     </row>
     <row r="17" ht="15.0" customHeight="1">
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1798,7 +1856,7 @@
     </row>
     <row r="18" ht="15.0" customHeight="1">
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1808,7 +1866,7 @@
     </row>
     <row r="19" ht="15.0" customHeight="1">
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
